--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H2">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I2">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J2">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>1191.110636185543</v>
+        <v>16.00334783612211</v>
       </c>
       <c r="R2">
-        <v>10719.99572566988</v>
+        <v>144.030130525099</v>
       </c>
       <c r="S2">
-        <v>0.2985082243743464</v>
+        <v>0.009001507626233855</v>
       </c>
       <c r="T2">
-        <v>0.2985082243743464</v>
+        <v>0.009001507626233857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H3">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I3">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J3">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>1063.912966786586</v>
+        <v>6.134938445719444</v>
       </c>
       <c r="R3">
-        <v>9575.216701079276</v>
+        <v>55.214446011475</v>
       </c>
       <c r="S3">
-        <v>0.266630790588319</v>
+        <v>0.003450758914392284</v>
       </c>
       <c r="T3">
-        <v>0.266630790588319</v>
+        <v>0.003450758914392285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H4">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I4">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J4">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>607.2492402250853</v>
+        <v>3.501636718690445</v>
       </c>
       <c r="R4">
-        <v>5465.243162025767</v>
+        <v>31.514730468214</v>
       </c>
       <c r="S4">
-        <v>0.1521847651640182</v>
+        <v>0.001969588485507191</v>
       </c>
       <c r="T4">
-        <v>0.1521847651640182</v>
+        <v>0.001969588485507191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21.223478</v>
       </c>
       <c r="I5">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J5">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>374.3135552809398</v>
+        <v>872.1480001291229</v>
       </c>
       <c r="R5">
-        <v>3368.821997528458</v>
+        <v>7849.332001162106</v>
       </c>
       <c r="S5">
-        <v>0.09380797329120373</v>
+        <v>0.4905627844098184</v>
       </c>
       <c r="T5">
-        <v>0.09380797329120373</v>
+        <v>0.4905627844098184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.223478</v>
       </c>
       <c r="I6">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J6">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>334.3409361054055</v>
@@ -818,10 +818,10 @@
         <v>3009.06842494865</v>
       </c>
       <c r="S6">
-        <v>0.0837903013712445</v>
+        <v>0.1880589309770477</v>
       </c>
       <c r="T6">
-        <v>0.0837903013712445</v>
+        <v>0.1880589309770477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.223478</v>
       </c>
       <c r="I7">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J7">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>190.8316617658796</v>
@@ -880,10 +880,10 @@
         <v>1717.484955892916</v>
       </c>
       <c r="S7">
-        <v>0.0478249616597874</v>
+        <v>0.1073383317230134</v>
       </c>
       <c r="T7">
-        <v>0.0478249616597874</v>
+        <v>0.1073383317230134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.390338</v>
       </c>
       <c r="I8">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J8">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>95.06814014865755</v>
+        <v>221.5081103445918</v>
       </c>
       <c r="R8">
-        <v>855.6132613379179</v>
+        <v>1993.572993101326</v>
       </c>
       <c r="S8">
-        <v>0.02382534489090622</v>
+        <v>0.1245931142007004</v>
       </c>
       <c r="T8">
-        <v>0.02382534489090622</v>
+        <v>0.1245931142007004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.390338</v>
       </c>
       <c r="I9">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J9">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>84.9158961054611</v>
@@ -1004,10 +1004,10 @@
         <v>764.2430649491499</v>
       </c>
       <c r="S9">
-        <v>0.0212810570215151</v>
+        <v>0.04776319893869221</v>
       </c>
       <c r="T9">
-        <v>0.02128105702151511</v>
+        <v>0.04776319893869221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.390338</v>
       </c>
       <c r="I10">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J10">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>48.46741698131511</v>
@@ -1066,10 +1066,10 @@
         <v>436.206752831836</v>
       </c>
       <c r="S10">
-        <v>0.01214658163865956</v>
+        <v>0.02726178472459438</v>
       </c>
       <c r="T10">
-        <v>0.01214658163865956</v>
+        <v>0.02726178472459437</v>
       </c>
     </row>
   </sheetData>
